--- a/OffPCBPartsRev2b.xlsx
+++ b/OffPCBPartsRev2b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5FFFDBB-62F7-48A8-BAFC-3A561B693163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B897C3-C285-4C1A-8A23-FA8F0C0DB300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="12645" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
+    <workbookView xWindow="5100" yWindow="2115" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>Quantity</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
     <t>Supplier</t>
   </si>
   <si>
@@ -90,9 +87,15 @@
     <t>HM1100-ND</t>
   </si>
   <si>
+    <t>CORD 18AWG NEMA 1-15P - C7 6.56'</t>
+  </si>
+  <si>
     <t>Schurter Inc.</t>
   </si>
   <si>
+    <t>485-4157-ND</t>
+  </si>
+  <si>
     <t>CONN JUMPER SHORTING GOLD FLASH</t>
   </si>
   <si>
@@ -105,6 +108,9 @@
     <t>S9001-ND</t>
   </si>
   <si>
+    <t>FUSE</t>
+  </si>
+  <si>
     <t>Bel Fuse</t>
   </si>
   <si>
@@ -123,6 +129,12 @@
     <t>4527C</t>
   </si>
   <si>
+    <t>35-4527C-ND</t>
+  </si>
+  <si>
+    <t>CONN QC RCPT 16-20 AWG</t>
+  </si>
+  <si>
     <t>Phoenix</t>
   </si>
   <si>
@@ -132,41 +144,26 @@
     <t>Off PCB components Rev 2b</t>
   </si>
   <si>
-    <t>486-4157-ND</t>
-  </si>
-  <si>
-    <t>alternative</t>
-  </si>
-  <si>
-    <t>486-4173-ND</t>
-  </si>
-  <si>
-    <t>CORD 18AWG NEMA 1-15P - C7 6.56' Canada, USA</t>
-  </si>
-  <si>
-    <t>CORD IEC 884/EN50 075 - C7 6.56'  Euro, Germany, Switzerland</t>
-  </si>
-  <si>
-    <t>6010.5274</t>
-  </si>
-  <si>
-    <t>6013.0474</t>
-  </si>
-  <si>
-    <t>FUSE 1A 250VAC 5x20</t>
-  </si>
-  <si>
-    <t>36-4527C-ND</t>
-  </si>
-  <si>
-    <t>CONN QC RCPT 16-20 AWG (optional)</t>
+    <t>16FWRT004050</t>
+  </si>
+  <si>
+    <t>Essentra Components</t>
+  </si>
+  <si>
+    <t>Manufacturer Part #</t>
+  </si>
+  <si>
+    <t>RPC6339-ND</t>
+  </si>
+  <si>
+    <t>WASHER FLAT RETAINING #4 NYLON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +174,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,23 +232,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -561,26 +567,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -609,42 +615,42 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -652,28 +658,28 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -681,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -695,72 +701,72 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>16</v>
+      <c r="I7" s="8">
+        <v>6010.5273999999999</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
+      <c r="A8" s="2">
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,103 +774,87 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3240538</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="7">
-        <v>3240538</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OffPCBPartsRev2b.xlsx
+++ b/OffPCBPartsRev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B897C3-C285-4C1A-8A23-FA8F0C0DB300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2115" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
+    <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Quantity</t>
   </si>
@@ -157,6 +157,51 @@
   </si>
   <si>
     <t>WASHER FLAT RETAINING #4 NYLON</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Dials BLK .940 DIA KNOB</t>
+  </si>
+  <si>
+    <t>Apem</t>
+  </si>
+  <si>
+    <t>420063B1/4</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Dials BLK .748 DIA KNOB</t>
+  </si>
+  <si>
+    <t>420061B1/8</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Dials BLK .500 DIA KNOB 1/8in Shaft</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Dials BLK .500 DIA KNOB 1/4in Shaft</t>
+  </si>
+  <si>
+    <t>420061B1/4</t>
+  </si>
+  <si>
+    <t>420065B1/4</t>
+  </si>
+  <si>
+    <t>ROUND SPACER #4 NYLON 1/2"</t>
+  </si>
+  <si>
+    <t>9911-500</t>
+  </si>
+  <si>
+    <t>Mouser</t>
+  </si>
+  <si>
+    <t>Bivar Inc.</t>
+  </si>
+  <si>
+    <t>2 or 3</t>
+  </si>
+  <si>
+    <t>0 or 1</t>
   </si>
 </sst>
 </file>
@@ -186,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +241,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -244,14 +295,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,21 +621,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="24" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -660,7 +713,7 @@
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -689,7 +742,7 @@
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -701,7 +754,7 @@
       <c r="H7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="6">
         <v>6010.5273999999999</v>
       </c>
       <c r="J7" s="5" t="s">
@@ -840,10 +893,10 @@
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -851,6 +904,119 @@
       </c>
       <c r="K12" s="2" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/OffPCBPartsRev2b.xlsx
+++ b/OffPCBPartsRev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705833FF-740F-4564-AB63-DD8792EB87BB}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
   <si>
     <t>Quantity</t>
   </si>
@@ -87,15 +87,9 @@
     <t>HM1100-ND</t>
   </si>
   <si>
-    <t>CORD 18AWG NEMA 1-15P - C7 6.56'</t>
-  </si>
-  <si>
     <t>Schurter Inc.</t>
   </si>
   <si>
-    <t>485-4157-ND</t>
-  </si>
-  <si>
     <t>CONN JUMPER SHORTING GOLD FLASH</t>
   </si>
   <si>
@@ -202,23 +196,40 @@
   </si>
   <si>
     <t>0 or 1</t>
+  </si>
+  <si>
+    <t>492-1093-ND</t>
+  </si>
+  <si>
+    <t>486-4157-ND</t>
+  </si>
+  <si>
+    <t>1 or 0</t>
+  </si>
+  <si>
+    <t>6010.5274</t>
+  </si>
+  <si>
+    <t>486-4926-ND</t>
+  </si>
+  <si>
+    <t>6013.0478</t>
+  </si>
+  <si>
+    <t>CORD 18AWG NEMA 1-15P - C7 6.56' (USA)</t>
+  </si>
+  <si>
+    <t>CORD EN50 075 - IEC320-C7 13.12' (EU)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,12 +252,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -295,16 +300,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -621,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -668,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
@@ -736,14 +744,14 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>1</v>
+      <c r="A7" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>20</v>
+      <c r="C7" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -752,27 +760,27 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="6">
-        <v>6010.5273999999999</v>
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>3</v>
+      <c r="A8" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -781,27 +789,27 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -810,16 +818,16 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -830,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -839,27 +847,27 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -868,159 +876,191 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="2">
-        <v>3240538</v>
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>39</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3240538</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>44</v>
+      <c r="C13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>55</v>
+      <c r="H13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>50</v>
+      <c r="C16" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="I18" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/OffPCBPartsRev2b.xlsx
+++ b/OffPCBPartsRev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705833FF-740F-4564-AB63-DD8792EB87BB}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7210657E-6227-4D90-8EA2-8FA1446C0E9F}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>Quantity</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>CORD EN50 075 - IEC320-C7 13.12' (EU)</t>
+  </si>
+  <si>
+    <t>The spacers are used to convert the diameter for the knobs</t>
   </si>
 </sst>
 </file>
@@ -629,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,6 +1062,11 @@
         <v>57</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/OffPCBPartsRev2b.xlsx
+++ b/OffPCBPartsRev2b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7210657E-6227-4D90-8EA2-8FA1446C0E9F}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB42024-0303-4AF8-8CD5-DD6AD6574654}"/>
   <bookViews>
     <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>Quantity</t>
   </si>
@@ -223,13 +223,25 @@
   </si>
   <si>
     <t>The spacers are used to convert the diameter for the knobs</t>
+  </si>
+  <si>
+    <t>Changelog:</t>
+  </si>
+  <si>
+    <t>Juli 26</t>
+  </si>
+  <si>
+    <t>The partnumber for the EU cord has been added</t>
+  </si>
+  <si>
+    <t>The partnumber for the US cord has been corrected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +252,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -632,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1085,26 @@
         <v>65</v>
       </c>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OffPCBPartsRev2b.xlsx
+++ b/OffPCBPartsRev2b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3408cfa2997e5e56/Documents/Hobby/Curve Tracer/Version 3/Final Version/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DB42024-0303-4AF8-8CD5-DD6AD6574654}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{3EDE372C-AF45-487A-AFE1-AC872036EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9ECF8C1-48DA-458F-AD7E-7DC57EE4EBB9}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2805" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
+    <workbookView xWindow="4335" yWindow="540" windowWidth="21600" windowHeight="14055" xr2:uid="{D9B5250A-F1EB-4DF2-90E4-A089B39A1F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>Quantity</t>
   </si>
@@ -123,9 +123,6 @@
     <t>4527C</t>
   </si>
   <si>
-    <t>35-4527C-ND</t>
-  </si>
-  <si>
     <t>CONN QC RCPT 16-20 AWG</t>
   </si>
   <si>
@@ -235,6 +232,15 @@
   </si>
   <si>
     <t>The partnumber for the US cord has been corrected</t>
+  </si>
+  <si>
+    <t>36-4527C-ND</t>
+  </si>
+  <si>
+    <t>Juli 28</t>
+  </si>
+  <si>
+    <t>Corrected Digikey p/n for the Fuse holder cover</t>
   </si>
 </sst>
 </file>
@@ -650,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DF5513-CF5B-46C0-9725-601DF40F547E}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,7 +674,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -697,7 +703,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>8</v>
@@ -766,13 +772,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -784,24 +790,24 @@
         <v>20</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -813,13 +819,13 @@
         <v>20</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -906,7 +912,7 @@
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -917,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -926,7 +932,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2">
         <v>3240538</v>
@@ -935,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -946,22 +952,22 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -972,19 +978,19 @@
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -995,65 +1001,65 @@
         <v>10</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1062,45 +1068,53 @@
         <v>10</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
